--- a/plan/1.컨텐츠/아이템/아이템 기획서.xlsx
+++ b/plan/1.컨텐츠/아이템/아이템 기획서.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LEINSTER/Documents/gamebusdriver/plan/1.컨텐츠/아이템/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leinster\Documents\gamebusdriver\plan\1.컨텐츠\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -335,7 +335,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -512,6 +512,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -524,14 +527,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
   </cellStyles>
@@ -571,7 +571,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -866,70 +872,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="93" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="93" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.5546875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="1"/>
+    <col min="2" max="2" width="2.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="1" customWidth="1"/>
     <col min="7" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.5703125" style="1" customWidth="1"/>
-    <col min="32" max="58" width="2.5703125" style="1"/>
-    <col min="59" max="59" width="2.5703125" style="1" customWidth="1"/>
-    <col min="60" max="16384" width="2.5703125" style="1"/>
+    <col min="25" max="25" width="3.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.5546875" style="1" customWidth="1"/>
+    <col min="32" max="58" width="2.5546875" style="1"/>
+    <col min="59" max="59" width="2.5546875" style="1" customWidth="1"/>
+    <col min="60" max="16384" width="2.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="7" t="s">
         <v>52</v>
       </c>
@@ -940,7 +949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
@@ -949,7 +958,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
@@ -958,7 +967,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
@@ -967,7 +976,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
@@ -976,7 +985,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
@@ -985,7 +994,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
@@ -994,7 +1003,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1012,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
@@ -1012,7 +1021,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
@@ -1021,7 +1030,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
@@ -1030,7 +1039,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="3:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="47.25" x14ac:dyDescent="0.3">
       <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1048,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
         <v>50</v>
       </c>
@@ -1048,7 +1057,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="3:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="47.25" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1057,7 +1066,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="3:5" ht="51" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="47.25" x14ac:dyDescent="0.3">
       <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1075,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="3:5" ht="34" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +1084,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C24" s="5" t="s">
         <v>18</v>
       </c>
@@ -1084,7 +1093,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
@@ -1093,7 +1102,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C26" s="5" t="s">
         <v>20</v>
       </c>
@@ -1102,7 +1111,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C27" s="5" t="s">
         <v>21</v>
       </c>
@@ -1111,7 +1120,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C28" s="5" t="s">
         <v>22</v>
       </c>
@@ -1120,7 +1129,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="5" t="s">
         <v>23</v>
       </c>
@@ -1129,7 +1138,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="5" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1147,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="3:5" ht="34" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" ht="31.5" x14ac:dyDescent="0.3">
       <c r="C31" s="5" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1156,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
@@ -1156,7 +1165,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="47.25" x14ac:dyDescent="0.3">
       <c r="C33" s="5" t="s">
         <v>27</v>
       </c>
@@ -1165,7 +1174,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="5" t="s">
         <v>28</v>
       </c>
@@ -1174,7 +1183,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5" t="s">
         <v>29</v>
       </c>
@@ -1183,32 +1192,32 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="17" t="s">
+    <row r="40" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="2:6" ht="244" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="13" t="s">
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="2:6" ht="243.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="9" t="s">
         <v>85</v>
       </c>
@@ -1222,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C43" s="9" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="10" t="s">
         <v>5</v>
       </c>
@@ -1250,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="10" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="10" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="10" t="s">
         <v>8</v>
       </c>
@@ -1292,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="10" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="10" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="10" t="s">
         <v>11</v>
       </c>
@@ -1334,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="10" t="s">
         <v>12</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="10" t="s">
         <v>13</v>
       </c>
@@ -1362,7 +1371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="10" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="10" t="s">
         <v>49</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="11"/>
       <c r="D55" s="3"/>
       <c r="E55" s="10" t="s">
@@ -1400,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="11"/>
       <c r="D56" s="3"/>
       <c r="E56" s="10" t="s">
@@ -1410,27 +1419,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="17" t="s">
+    <row r="59" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17" t="s">
+      <c r="D59" s="13"/>
+      <c r="E59" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="13" t="s">
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="15" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="17"/>
+    </row>
+    <row r="61" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="9" t="s">
         <v>86</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="10" t="s">
         <v>5</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="10" t="s">
         <v>6</v>
       </c>
@@ -1472,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="10" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="10" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="10" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="10" t="s">
         <v>10</v>
       </c>
@@ -1528,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="10" t="s">
         <v>11</v>
       </c>
@@ -1542,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="10" t="s">
         <v>12</v>
       </c>
@@ -1556,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="10" t="s">
         <v>13</v>
       </c>
@@ -1570,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="10" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="10" t="s">
         <v>49</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="12"/>
       <c r="D73" s="3"/>
       <c r="E73" s="10" t="s">
@@ -1608,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="11"/>
       <c r="D74" s="3"/>
       <c r="E74" s="10" t="s">
@@ -1618,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="11"/>
       <c r="D75" s="3"/>
       <c r="E75" s="10" t="s">
@@ -1628,27 +1637,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="17" t="s">
+    <row r="77" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17" t="s">
+      <c r="D77" s="13"/>
+      <c r="E77" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F77" s="17"/>
-    </row>
-    <row r="78" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="13" t="s">
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="15" t="s">
+      <c r="D78" s="15"/>
+      <c r="E78" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F78" s="16"/>
-    </row>
-    <row r="79" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="17"/>
+    </row>
+    <row r="79" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="9" t="s">
         <v>85</v>
       </c>
@@ -1662,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="9" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="10" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="10" t="s">
         <v>6</v>
       </c>
@@ -1704,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="10" t="s">
         <v>7</v>
       </c>
@@ -1718,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C84" s="10" t="s">
         <v>8</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="10" t="s">
         <v>9</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C86" s="10" t="s">
         <v>10</v>
       </c>
@@ -1760,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C87" s="10" t="s">
         <v>11</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
@@ -1788,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C89" s="10" t="s">
         <v>13</v>
       </c>
@@ -1802,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C90" s="10" t="s">
         <v>14</v>
       </c>
@@ -1816,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C91" s="10" t="s">
         <v>49</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C92" s="11"/>
       <c r="D92" s="3"/>
       <c r="E92" s="10" t="s">
@@ -1840,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="11"/>
       <c r="D93" s="3"/>
       <c r="E93" s="10" t="s">
@@ -1850,27 +1859,27 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="17" t="s">
+    <row r="95" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17" t="s">
+      <c r="D95" s="13"/>
+      <c r="E95" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F95" s="17"/>
-    </row>
-    <row r="96" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="13" t="s">
+      <c r="F95" s="13"/>
+    </row>
+    <row r="96" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15" t="s">
+      <c r="D96" s="15"/>
+      <c r="E96" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F96" s="16"/>
-    </row>
-    <row r="97" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="17"/>
+    </row>
+    <row r="97" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="9" t="s">
         <v>85</v>
       </c>
@@ -1884,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C98" s="9" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C99" s="10" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C100" s="10" t="s">
         <v>6</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C101" s="10" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C102" s="10" t="s">
         <v>8</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C103" s="10" t="s">
         <v>9</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C104" s="10" t="s">
         <v>10</v>
       </c>
@@ -1982,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C105" s="10" t="s">
         <v>11</v>
       </c>
@@ -1996,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="10" t="s">
         <v>12</v>
       </c>
@@ -2010,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="10" t="s">
         <v>13</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="10" t="s">
         <v>14</v>
       </c>
@@ -2038,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C109" s="10" t="s">
         <v>49</v>
       </c>
@@ -2052,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C110" s="11"/>
       <c r="D110" s="3"/>
       <c r="E110" s="10" t="s">
@@ -2062,7 +2071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C111" s="11"/>
       <c r="D111" s="3"/>
       <c r="E111" s="10" t="s">
@@ -2072,27 +2081,27 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" s="17" t="s">
+    <row r="113" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17" t="s">
+      <c r="D113" s="13"/>
+      <c r="E113" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F113" s="17"/>
-    </row>
-    <row r="114" spans="3:6" ht="249" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" s="13" t="s">
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="3:6" ht="249" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D114" s="14"/>
-      <c r="E114" s="15" t="s">
+      <c r="D114" s="15"/>
+      <c r="E114" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F114" s="16"/>
-    </row>
-    <row r="115" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C115" s="9" t="s">
         <v>85</v>
       </c>
@@ -2106,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C116" s="9" t="s">
         <v>4</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C117" s="10" t="s">
         <v>5</v>
       </c>
@@ -2134,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C118" s="10" t="s">
         <v>6</v>
       </c>
@@ -2148,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C119" s="10" t="s">
         <v>7</v>
       </c>
@@ -2162,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C120" s="10" t="s">
         <v>8</v>
       </c>
@@ -2176,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C121" s="10" t="s">
         <v>9</v>
       </c>
@@ -2190,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C122" s="10" t="s">
         <v>10</v>
       </c>
@@ -2204,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C123" s="10" t="s">
         <v>11</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C124" s="10" t="s">
         <v>12</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C125" s="10" t="s">
         <v>13</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C126" s="10" t="s">
         <v>14</v>
       </c>
@@ -2260,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C127" s="10" t="s">
         <v>49</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="11"/>
       <c r="D128" s="3"/>
       <c r="E128" s="10" t="s">
@@ -2284,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C129" s="11"/>
       <c r="D129" s="3"/>
       <c r="E129" s="10" t="s">
@@ -2296,6 +2305,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="C60:D60"/>
@@ -2304,22 +2325,10 @@
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:F114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>